--- a/Konzept (20.03.2023)/MappeShips.xlsx
+++ b/Konzept (20.03.2023)/MappeShips.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae64ddbbd6707e46/Desktop/gitHub/AutoBattlerSW/Konzept (20.03.2023)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathiasalexander.pal\OneDrive - CGM\Desktop\EclipsePortable\Data\workspace\AutoBattlerSW\Konzept (20.03.2023)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="296" documentId="14_{8A0C77D5-7AFE-4DE9-891A-EAB549D89894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DA4B1E5-0A71-4CF3-880E-A46F16B6FC46}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FCB636-1C91-4C45-B3D5-C1AB5610A0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{791FD962-70B8-4E21-813D-7E34BE83B7C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{791FD962-70B8-4E21-813D-7E34BE83B7C2}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -357,13 +357,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -392,10 +391,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -838,30 +833,30 @@
   <dimension ref="B3:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -908,7 +903,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -956,7 +951,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -999,12 +994,12 @@
         <f>SUM(Tabelle10[[#This Row],[all ship HP]:[all ship shield]])</f>
         <v>17700</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6">
         <f>SUM(Tabelle13[credit cost])</f>
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1047,12 +1042,12 @@
         <f>SUM(Tabelle10[[#This Row],[all ship HP]:[all ship shield]])</f>
         <v>19200</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7">
         <f>SUM(Tabelle134[credit cost])</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1087,9 +1082,8 @@
         <f>SUM(Tabelle10[[#This Row],[all ship HP]:[all ship shield]])</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1121,9 +1115,8 @@
         <f>SUM(Tabelle10[[#This Row],[all ship HP]:[all ship shield]])</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1152,7 +1145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1182,7 +1175,7 @@
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1211,12 +1204,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -1248,7 +1241,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -1277,7 +1270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1306,7 +1299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -1335,7 +1328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -1364,7 +1357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -1393,7 +1386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>23</v>
       </c>
@@ -1422,7 +1415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>22</v>
       </c>
@@ -1451,7 +1444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -1480,7 +1473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>33</v>
       </c>
@@ -1509,12 +1502,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>1</v>
       </c>
@@ -1546,7 +1539,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>35</v>
       </c>
@@ -1575,7 +1568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>36</v>
       </c>
@@ -1604,7 +1597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>37</v>
       </c>
@@ -1633,7 +1626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>38</v>
       </c>
@@ -1662,7 +1655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>44</v>
       </c>
@@ -1688,10 +1681,10 @@
         <v>51</v>
       </c>
       <c r="K32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>39</v>
       </c>
@@ -1720,7 +1713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>41</v>
       </c>
@@ -1746,10 +1739,10 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>40</v>
       </c>
@@ -1775,10 +1768,10 @@
         <v>51</v>
       </c>
       <c r="K35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>42</v>
       </c>
@@ -1807,7 +1800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>43</v>
       </c>
@@ -1839,6 +1832,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;9&amp;K000000 Internal Use Only</oddFooter>
+  </headerFooter>
   <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -1898,21 +1894,21 @@
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -1935,7 +1931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>58</v>
       </c>
@@ -1959,7 +1955,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>57</v>
       </c>
@@ -1983,7 +1979,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>56</v>
       </c>
@@ -2007,7 +2003,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>55</v>
       </c>
@@ -2031,7 +2027,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>54</v>
       </c>
@@ -2052,30 +2048,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G10" t="e" cm="1">
         <f t="array" ref="G10">_xlfn.IFS(D10 = "none", "0", D10 = "shield", "2", D10 = "hp", "2", D10 = "all", "3"  )</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G11" t="e" cm="1">
         <f t="array" ref="G11">_xlfn.IFS(D11 = "none", "0", D11 = "shield", "2", D11 = "hp", "2", D11 = "all", "3"  )</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G12" t="e" cm="1">
         <f t="array" ref="G12">_xlfn.IFS(D12 = "none", "0", D12 = "shield", "2", D12 = "hp", "2", D12 = "all", "3"  )</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -2095,7 +2091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>51</v>
       </c>
@@ -2104,7 +2100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>76</v>
       </c>
@@ -2119,7 +2115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>75</v>
       </c>
@@ -2134,7 +2130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>77</v>
       </c>
@@ -2149,25 +2145,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G22" t="e" cm="1">
         <f t="array" ref="G22">_xlfn.IFS(D22 = "none", "0", D22 = "shield", "2", D22 = "hp", "2", D22 = "all", "3"  )</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G23" t="e" cm="1">
         <f t="array" ref="G23">_xlfn.IFS(D23 = "none", "0", D23 = "shield", "2", D23 = "hp", "2", D23 = "all", "3"  )</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G24" t="e" cm="1">
         <f t="array" ref="G24">_xlfn.IFS(D24 = "none", "0", D24 = "shield", "2", D24 = "hp", "2", D24 = "all", "3"  )</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G25" t="e" cm="1">
         <f t="array" ref="G25">_xlfn.IFS(D25 = "none", "0", D25 = "shield", "2", D25 = "hp", "2", D25 = "all", "3"  )</f>
         <v>#N/A</v>
@@ -2180,6 +2176,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;9&amp;K000000 Internal Use Only</oddFooter>
+  </headerFooter>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -2195,17 +2194,17 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -2227,6 +2226,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;9&amp;K000000 Internal Use Only</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -2241,12 +2243,12 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -2257,7 +2259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>51</v>
       </c>
@@ -2268,7 +2270,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -2279,7 +2281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -2290,7 +2292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -2301,15 +2303,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;9&amp;K000000 Internal Use Only</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{fbf47bbe-a0a2-4c04-9ba4-22f94012202d}" enabled="1" method="Standard" siteId="{69602cf4-a76e-4265-955f-03c329c50608}" contentBits="2" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Konzept (20.03.2023)/MappeShips.xlsx
+++ b/Konzept (20.03.2023)/MappeShips.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathiasalexander.pal\OneDrive - CGM\Desktop\EclipsePortable\Data\workspace\AutoBattlerSW\Konzept (20.03.2023)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/mathiasalexander_palm_cgm_com/Documents/Desktop/EclipsePortable/Data/workspace/AutoBattlerSW/Konzept (20.03.2023)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FCB636-1C91-4C45-B3D5-C1AB5610A0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{60FCB636-1C91-4C45-B3D5-C1AB5610A0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5313995-79C2-4303-9E3A-8431790E69D5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{791FD962-70B8-4E21-813D-7E34BE83B7C2}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{791FD962-70B8-4E21-813D-7E34BE83B7C2}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="89">
   <si>
     <t>nation</t>
   </si>
@@ -322,6 +322,12 @@
   </si>
   <si>
     <t>all hp and shield</t>
+  </si>
+  <si>
+    <t>Reloadtime</t>
+  </si>
+  <si>
+    <t>multiplyer2</t>
   </si>
 </sst>
 </file>
@@ -357,17 +363,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -394,9 +404,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E47A568-B42A-4666-AAA9-EB21879F376C}" name="Tabelle1" displayName="Tabelle1" ref="B4:K12" totalsRowShown="0">
-  <autoFilter ref="B4:K12" xr:uid="{0E47A568-B42A-4666-AAA9-EB21879F376C}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E47A568-B42A-4666-AAA9-EB21879F376C}" name="Tabelle1" displayName="Tabelle1" ref="B4:L12" totalsRowShown="0">
+  <autoFilter ref="B4:L12" xr:uid="{0E47A568-B42A-4666-AAA9-EB21879F376C}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{D4446C93-F098-4E23-A8F6-832E5444E39D}" name="shipname"/>
     <tableColumn id="2" xr3:uid="{AADA9D37-6C59-4A27-B6FD-21392E762875}" name="nation"/>
     <tableColumn id="3" xr3:uid="{CC4CEB7C-8ED6-42DC-8441-3563F1054D54}" name="shiphp"/>
@@ -406,16 +416,17 @@
     <tableColumn id="7" xr3:uid="{094C5CD5-827F-4429-A5F6-2168E8A802E3}" name="shipclass"/>
     <tableColumn id="8" xr3:uid="{DCC70061-A899-4AAF-9A10-7E94EA7300BD}" name="bullet"/>
     <tableColumn id="9" xr3:uid="{5A398161-E78A-4A3F-8AFF-4F1F82BCA9AC}" name="rockets"/>
-    <tableColumn id="10" xr3:uid="{5D054764-8A36-48C2-8170-0F70A2B02D30}" name="credit cost"/>
+    <tableColumn id="10" xr3:uid="{5D054764-8A36-48C2-8170-0F70A2B02D30}" name="Reloadtime"/>
+    <tableColumn id="11" xr3:uid="{5FB0F5F2-D87B-41C4-BF69-EA2DC275902A}" name="credit cost"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4761389C-27F4-414A-A9C7-DA00D542827F}" name="Tabelle13" displayName="Tabelle13" ref="B15:K24" totalsRowShown="0">
-  <autoFilter ref="B15:K24" xr:uid="{4761389C-27F4-414A-A9C7-DA00D542827F}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4761389C-27F4-414A-A9C7-DA00D542827F}" name="Tabelle13" displayName="Tabelle13" ref="B15:L24" totalsRowShown="0">
+  <autoFilter ref="B15:L24" xr:uid="{4761389C-27F4-414A-A9C7-DA00D542827F}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{22631E26-0370-4FB5-9807-076CDCF22D04}" name="shipname"/>
     <tableColumn id="2" xr3:uid="{ECB7C78A-E840-4A61-A13D-AED8409719C6}" name="nation"/>
     <tableColumn id="3" xr3:uid="{0E0FC401-720D-4A6B-89E2-A9F5F83620CC}" name="shiphp"/>
@@ -425,16 +436,17 @@
     <tableColumn id="7" xr3:uid="{452555F1-2201-4401-815B-75095DA90753}" name="shipclass"/>
     <tableColumn id="8" xr3:uid="{9B708939-EB2B-4200-8FBB-B70DCA82A934}" name="bullet"/>
     <tableColumn id="9" xr3:uid="{F2110636-7A25-4170-8D61-1FD080C5F23D}" name="rockets"/>
-    <tableColumn id="10" xr3:uid="{C039A857-969E-4AF9-B8CC-04229DBFED40}" name="credit cost"/>
+    <tableColumn id="10" xr3:uid="{C039A857-969E-4AF9-B8CC-04229DBFED40}" name="Reloadtime"/>
+    <tableColumn id="11" xr3:uid="{042E8655-F353-4828-9AF8-521D48BC0365}" name="credit cost"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{61F387DC-4576-47A8-946A-3A3D08243F0F}" name="Tabelle134" displayName="Tabelle134" ref="B27:K37" totalsRowShown="0">
-  <autoFilter ref="B27:K37" xr:uid="{61F387DC-4576-47A8-946A-3A3D08243F0F}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{61F387DC-4576-47A8-946A-3A3D08243F0F}" name="Tabelle134" displayName="Tabelle134" ref="B27:L37" totalsRowShown="0">
+  <autoFilter ref="B27:L37" xr:uid="{61F387DC-4576-47A8-946A-3A3D08243F0F}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{7EB1764D-717B-48D7-ABD4-5C789BD8F78F}" name="shipname"/>
     <tableColumn id="2" xr3:uid="{721A9875-9CD8-4D34-B0A5-F0394C5A4DF2}" name="nation"/>
     <tableColumn id="3" xr3:uid="{7AFBFAE6-F6CE-45FD-BEB4-6043B15A4BCD}" name="shiphp"/>
@@ -444,44 +456,38 @@
     <tableColumn id="7" xr3:uid="{9DA0F0BD-C9E7-421D-80A7-229F04EB8E9C}" name="shipclass"/>
     <tableColumn id="8" xr3:uid="{89F36010-018C-491D-9223-2CCCB17E79CA}" name="bullet"/>
     <tableColumn id="9" xr3:uid="{BD9C1FE4-E3D8-42A4-92DF-6D25C7A4F7EC}" name="rockets"/>
-    <tableColumn id="10" xr3:uid="{24286CC6-3415-4C36-B453-05895661A0F5}" name="credit cost"/>
+    <tableColumn id="10" xr3:uid="{24286CC6-3415-4C36-B453-05895661A0F5}" name="Reloadtime"/>
+    <tableColumn id="11" xr3:uid="{E4980D6D-C741-43DA-8954-5CB1123ED58B}" name="credit cost"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B2E971C3-A834-47FC-8CCB-B6FEFC714AF6}" name="Tabelle10" displayName="Tabelle10" ref="M4:Q9" totalsRowShown="0">
-  <autoFilter ref="M4:Q9" xr:uid="{B2E971C3-A834-47FC-8CCB-B6FEFC714AF6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B2E971C3-A834-47FC-8CCB-B6FEFC714AF6}" name="Tabelle10" displayName="Tabelle10" ref="N4:R9" totalsRowShown="0">
+  <autoFilter ref="N4:R9" xr:uid="{B2E971C3-A834-47FC-8CCB-B6FEFC714AF6}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{48E499EA-1B4E-4D74-A9CB-2677C73DACBB}" name="nation"/>
-    <tableColumn id="2" xr3:uid="{8A161838-E66E-413A-BF2B-A59B84C31EE2}" name="all ship HP" dataDxfId="3">
-      <calculatedColumnFormula>SUM(Tabelle1[shiphp])</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{8A161838-E66E-413A-BF2B-A59B84C31EE2}" name="nation" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{9A091EFF-79ED-464F-BA1E-AAE6831FCFCB}" name="all ship HP" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{D718BD9F-C439-43D4-856B-5FAF3DD8641C}" name="all ship shield" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{6C24142A-6928-4501-B5A6-C31ED5767CB8}" name="all hp and shield" dataDxfId="1">
+      <calculatedColumnFormula>SUM(Tabelle10[[#This Row],[nation]:[all ship HP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9A091EFF-79ED-464F-BA1E-AAE6831FCFCB}" name="all ship shield" dataDxfId="2">
-      <calculatedColumnFormula>SUM(Tabelle1[shipshield])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{D718BD9F-C439-43D4-856B-5FAF3DD8641C}" name="all hp and shield" dataDxfId="1">
-      <calculatedColumnFormula>SUM(Tabelle10[[#This Row],[all ship HP]:[all ship shield]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{6C24142A-6928-4501-B5A6-C31ED5767CB8}" name="all credit cost" dataDxfId="0">
-      <calculatedColumnFormula>SUM(Tabelle1[credit cost])</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="6" xr3:uid="{52A529D0-4CFC-4613-82AE-FE596B99D776}" name="all credit cost" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{29DA9684-B417-4F08-8794-9299F0D1D8FA}" name="Tabelle47" displayName="Tabelle47" ref="B4:G12" totalsRowShown="0">
-  <autoFilter ref="B4:G12" xr:uid="{29DA9684-B417-4F08-8794-9299F0D1D8FA}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{29DA9684-B417-4F08-8794-9299F0D1D8FA}" name="Tabelle47" displayName="Tabelle47" ref="B4:F12" totalsRowShown="0">
+  <autoFilter ref="B4:F12" xr:uid="{29DA9684-B417-4F08-8794-9299F0D1D8FA}"/>
+  <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{0E2A81C4-5CE3-4B01-889A-DAD8ACD4EA1F}" name="name"/>
     <tableColumn id="3" xr3:uid="{5EFAC8B5-F4F6-4457-8146-8F2D96E55857}" name="type"/>
     <tableColumn id="4" xr3:uid="{2101326E-FA83-4C03-8607-F6C259642EE0}" name="Good Aginst"/>
     <tableColumn id="5" xr3:uid="{287DA73D-67EB-4600-9F05-4C52DC67791B}" name="damage"/>
-    <tableColumn id="6" xr3:uid="{0E09D1DF-C5B2-49D0-BD03-300325EFD28C}" name="couldown"/>
-    <tableColumn id="7" xr3:uid="{D3726976-9858-4479-8BCE-7AD5A0570C43}" name="multiplyer">
+    <tableColumn id="7" xr3:uid="{D3726976-9858-4479-8BCE-7AD5A0570C43}" name="multiplyer2">
       <calculatedColumnFormula array="1">_xlfn.IFS(D5 = "none", "0", D5 = "shield", "2", D5 = "hp", "2", D5 = "all", "3"  )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -830,33 +836,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D77168-FA99-4151-A35B-12AC80FF3986}">
-  <dimension ref="B3:Q37"/>
+  <dimension ref="B3:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -885,25 +891,28 @@
         <v>74</v>
       </c>
       <c r="K4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" t="s">
         <v>78</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>0</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>79</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>80</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>86</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -928,30 +937,30 @@
       <c r="J5" t="s">
         <v>51</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>83</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <f>SUM(Tabelle1[shiphp])</f>
         <v>9450</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <f>SUM(Tabelle1[shipshield])</f>
         <v>7950</v>
       </c>
-      <c r="P5">
-        <f>SUM(Tabelle10[[#This Row],[all ship HP]:[all ship shield]])</f>
-        <v>17400</v>
-      </c>
       <c r="Q5">
-        <f>SUM(Tabelle1[credit cost])</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+        <f>SUM(Tabelle10[[#This Row],[nation]:[all ship HP]])</f>
+        <v>9450</v>
+      </c>
+      <c r="R5" s="3">
+        <f>SUM(Tabelle1[Reloadtime])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -976,30 +985,30 @@
       <c r="J6" t="s">
         <v>51</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>82</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <f>SUM(Tabelle13[shiphp])</f>
         <v>9550</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <f>SUM(Tabelle13[shipshield])</f>
         <v>8150</v>
       </c>
-      <c r="P6">
-        <f>SUM(Tabelle10[[#This Row],[all ship HP]:[all ship shield]])</f>
-        <v>17700</v>
-      </c>
       <c r="Q6">
-        <f>SUM(Tabelle13[credit cost])</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+        <f>SUM(Tabelle10[[#This Row],[nation]:[all ship HP]])</f>
+        <v>9550</v>
+      </c>
+      <c r="R6" s="3">
+        <f>SUM(Tabelle13[Reloadtime])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1024,30 +1033,30 @@
       <c r="J7" t="s">
         <v>75</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <f>SUM(Tabelle134[shiphp])</f>
-        <v>9950</v>
-      </c>
-      <c r="O7">
+        <v>10700</v>
+      </c>
+      <c r="P7">
         <f>SUM(Tabelle134[shipshield])</f>
         <v>9250</v>
       </c>
-      <c r="P7">
-        <f>SUM(Tabelle10[[#This Row],[all ship HP]:[all ship shield]])</f>
-        <v>19200</v>
-      </c>
       <c r="Q7">
-        <f>SUM(Tabelle134[credit cost])</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+        <f>SUM(Tabelle10[[#This Row],[nation]:[all ship HP]])</f>
+        <v>10700</v>
+      </c>
+      <c r="R7" s="3">
+        <f>SUM(Tabelle134[Reloadtime])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1072,18 +1081,19 @@
       <c r="J8" t="s">
         <v>51</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>3</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>85</v>
       </c>
-      <c r="P8">
-        <f>SUM(Tabelle10[[#This Row],[all ship HP]:[all ship shield]])</f>
+      <c r="Q8">
+        <f>SUM(Tabelle10[[#This Row],[nation]:[all ship HP]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1108,15 +1118,16 @@
       <c r="J9" t="s">
         <v>51</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="P9">
-        <f>SUM(Tabelle10[[#This Row],[all ship HP]:[all ship shield]])</f>
+      <c r="Q9">
+        <f>SUM(Tabelle10[[#This Row],[nation]:[all ship HP]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1141,11 +1152,11 @@
       <c r="J10" t="s">
         <v>51</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1170,12 +1181,12 @@
       <c r="J11" t="s">
         <v>75</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>8</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1200,16 +1211,16 @@
       <c r="J12" t="s">
         <v>76</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -1238,10 +1249,13 @@
         <v>74</v>
       </c>
       <c r="K15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -1266,11 +1280,11 @@
       <c r="J16" t="s">
         <v>77</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1295,11 +1309,11 @@
       <c r="J17" t="s">
         <v>51</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -1324,11 +1338,11 @@
       <c r="J18" t="s">
         <v>51</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -1353,11 +1367,11 @@
       <c r="J19" t="s">
         <v>76</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -1382,11 +1396,11 @@
       <c r="J20" t="s">
         <v>51</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>23</v>
       </c>
@@ -1411,11 +1425,11 @@
       <c r="J21" t="s">
         <v>75</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>22</v>
       </c>
@@ -1440,11 +1454,11 @@
       <c r="J22" t="s">
         <v>51</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -1469,11 +1483,11 @@
       <c r="J23" t="s">
         <v>51</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>33</v>
       </c>
@@ -1498,16 +1512,16 @@
       <c r="J24" t="s">
         <v>51</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>1</v>
       </c>
@@ -1536,10 +1550,13 @@
         <v>74</v>
       </c>
       <c r="K27" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>35</v>
       </c>
@@ -1564,11 +1581,11 @@
       <c r="J28" t="s">
         <v>51</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>36</v>
       </c>
@@ -1593,11 +1610,11 @@
       <c r="J29" t="s">
         <v>77</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>37</v>
       </c>
@@ -1622,11 +1639,11 @@
       <c r="J30" t="s">
         <v>51</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>38</v>
       </c>
@@ -1651,11 +1668,11 @@
       <c r="J31" t="s">
         <v>75</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>44</v>
       </c>
@@ -1680,11 +1697,11 @@
       <c r="J32" t="s">
         <v>51</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>39</v>
       </c>
@@ -1709,11 +1726,11 @@
       <c r="J33" t="s">
         <v>51</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>41</v>
       </c>
@@ -1738,11 +1755,11 @@
       <c r="J34" t="s">
         <v>51</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>40</v>
       </c>
@@ -1767,11 +1784,11 @@
       <c r="J35" t="s">
         <v>51</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>42</v>
       </c>
@@ -1779,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>1750</v>
+        <v>2500</v>
       </c>
       <c r="E36">
         <v>2000</v>
@@ -1796,11 +1813,11 @@
       <c r="J36" t="s">
         <v>76</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>43</v>
       </c>
@@ -1825,7 +1842,7 @@
       <c r="J37" t="s">
         <v>51</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>10</v>
       </c>
     </row>
@@ -1888,27 +1905,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2F235F-553F-4DF6-A7E5-29B099F51518}">
-  <dimension ref="B3:J25"/>
+  <dimension ref="B3:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -1922,16 +1939,13 @@
         <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>58</v>
       </c>
@@ -1942,20 +1956,17 @@
         <v>51</v>
       </c>
       <c r="E5">
-        <v>200</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5" s="2" t="str" cm="1">
-        <f t="array" ref="G5">_xlfn.IFS(D5 = "none", "0", D5 = "shield", "2", D5 = "hp", "2", D5 = "all", "3"  )</f>
+        <v>300</v>
+      </c>
+      <c r="F5" s="2" t="str" cm="1">
+        <f t="array" ref="F5">_xlfn.IFS(D5 = "none", "0", D5 = "shield", "2", D5 = "hp", "2", D5 = "all", "3"  )</f>
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>57</v>
       </c>
@@ -1968,18 +1979,15 @@
       <c r="E6">
         <v>300</v>
       </c>
-      <c r="F6">
-        <v>120</v>
-      </c>
-      <c r="G6" t="str" cm="1">
-        <f t="array" ref="G6">_xlfn.IFS(D6 = "none", "0", D6 = "shield", "2", D6 = "hp", "2", D6 = "all", "3"  )</f>
+      <c r="F6" t="str" cm="1">
+        <f t="array" ref="F6">_xlfn.IFS(D6 = "none", "0", D6 = "shield", "2", D6 = "hp", "2", D6 = "all", "3"  )</f>
         <v>2</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>56</v>
       </c>
@@ -1987,23 +1995,20 @@
         <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>300</v>
       </c>
-      <c r="F7">
-        <v>150</v>
-      </c>
-      <c r="G7" t="str" cm="1">
-        <f t="array" ref="G7">_xlfn.IFS(D7 = "none", "0", D7 = "shield", "2", D7 = "hp", "2", D7 = "all", "3"  )</f>
-        <v>3</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="F7" t="str" cm="1">
+        <f t="array" ref="F7">_xlfn.IFS(D7 = "none", "0", D7 = "shield", "2", D7 = "hp", "2", D7 = "all", "3"  )</f>
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>55</v>
       </c>
@@ -2011,23 +2016,20 @@
         <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E8">
-        <v>300</v>
-      </c>
-      <c r="F8">
-        <v>120</v>
-      </c>
-      <c r="G8" t="str" cm="1">
-        <f t="array" ref="G8">_xlfn.IFS(D8 = "none", "0", D8 = "shield", "2", D8 = "hp", "2", D8 = "all", "3"  )</f>
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F8" t="str" cm="1">
+        <f t="array" ref="F8">_xlfn.IFS(D8 = "none", "0", D8 = "shield", "2", D8 = "hp", "2", D8 = "all", "3"  )</f>
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>54</v>
       </c>
@@ -2035,43 +2037,40 @@
         <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9">
-        <v>350</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9" t="str" cm="1">
-        <f t="array" ref="G9">_xlfn.IFS(D9 = "none", "0", D9 = "shield", "2", D9 = "hp", "2", D9 = "all", "3"  )</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G10" t="e" cm="1">
-        <f t="array" ref="G10">_xlfn.IFS(D10 = "none", "0", D10 = "shield", "2", D10 = "hp", "2", D10 = "all", "3"  )</f>
+        <v>175</v>
+      </c>
+      <c r="F9" t="str" cm="1">
+        <f t="array" ref="F9">_xlfn.IFS(D9 = "none", "0", D9 = "shield", "2", D9 = "hp", "2", D9 = "all", "3"  )</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F10" t="e" cm="1">
+        <f t="array" ref="F10">_xlfn.IFS(D10 = "none", "0", D10 = "shield", "2", D10 = "hp", "2", D10 = "all", "3"  )</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G11" t="e" cm="1">
-        <f t="array" ref="G11">_xlfn.IFS(D11 = "none", "0", D11 = "shield", "2", D11 = "hp", "2", D11 = "all", "3"  )</f>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F11" t="e" cm="1">
+        <f t="array" ref="F11">_xlfn.IFS(D11 = "none", "0", D11 = "shield", "2", D11 = "hp", "2", D11 = "all", "3"  )</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G12" t="e" cm="1">
-        <f t="array" ref="G12">_xlfn.IFS(D12 = "none", "0", D12 = "shield", "2", D12 = "hp", "2", D12 = "all", "3"  )</f>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F12" t="e" cm="1">
+        <f t="array" ref="F12">_xlfn.IFS(D12 = "none", "0", D12 = "shield", "2", D12 = "hp", "2", D12 = "all", "3"  )</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -2091,7 +2090,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>51</v>
       </c>
@@ -2100,7 +2099,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>76</v>
       </c>
@@ -2115,7 +2114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>75</v>
       </c>
@@ -2130,7 +2129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>77</v>
       </c>
@@ -2145,25 +2144,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G22" t="e" cm="1">
         <f t="array" ref="G22">_xlfn.IFS(D22 = "none", "0", D22 = "shield", "2", D22 = "hp", "2", D22 = "all", "3"  )</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G23" t="e" cm="1">
         <f t="array" ref="G23">_xlfn.IFS(D23 = "none", "0", D23 = "shield", "2", D23 = "hp", "2", D23 = "all", "3"  )</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G24" t="e" cm="1">
         <f t="array" ref="G24">_xlfn.IFS(D24 = "none", "0", D24 = "shield", "2", D24 = "hp", "2", D24 = "all", "3"  )</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G25" t="e" cm="1">
         <f t="array" ref="G25">_xlfn.IFS(D25 = "none", "0", D25 = "shield", "2", D25 = "hp", "2", D25 = "all", "3"  )</f>
         <v>#N/A</v>
@@ -2172,7 +2171,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{86FE9C2D-A2CE-4A06-A89C-A8C8AB3ADED8}">
-      <formula1>$J$5:$J$8</formula1>
+      <formula1>$I$5:$I$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2194,17 +2193,17 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -2243,12 +2242,12 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -2259,7 +2258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>51</v>
       </c>
@@ -2270,7 +2269,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -2281,7 +2280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -2292,7 +2291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -2303,7 +2302,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>

--- a/Konzept (20.03.2023)/MappeShips.xlsx
+++ b/Konzept (20.03.2023)/MappeShips.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/mathiasalexander_palm_cgm_com/Documents/Desktop/EclipsePortable/Data/workspace/AutoBattlerSW/Konzept (20.03.2023)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae64ddbbd6707e46/Desktop/gitHub/AutoBattlerSW/Konzept (20.03.2023)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{60FCB636-1C91-4C45-B3D5-C1AB5610A0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5313995-79C2-4303-9E3A-8431790E69D5}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{60FCB636-1C91-4C45-B3D5-C1AB5610A0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64728CE5-DAB4-44F1-80A9-0CD31467DCFE}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{791FD962-70B8-4E21-813D-7E34BE83B7C2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{791FD962-70B8-4E21-813D-7E34BE83B7C2}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="101">
   <si>
     <t>nation</t>
   </si>
@@ -328,6 +328,42 @@
   </si>
   <si>
     <t>multiplyer2</t>
+  </si>
+  <si>
+    <t>shoot rocket (1)</t>
+  </si>
+  <si>
+    <t>shoot rocket (2)</t>
+  </si>
+  <si>
+    <t>shoot rocket (3)</t>
+  </si>
+  <si>
+    <t>shoots Ionencanon</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>other ships (team)</t>
+  </si>
+  <si>
+    <t>self + other ships (team)</t>
+  </si>
+  <si>
+    <t>other ships (enemy)</t>
+  </si>
+  <si>
+    <t>heal</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>masterheal</t>
   </si>
 </sst>
 </file>
@@ -363,13 +399,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -838,14 +873,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D77168-FA99-4151-A35B-12AC80FF3986}">
   <dimension ref="B3:R37"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -955,7 +991,7 @@
         <f>SUM(Tabelle10[[#This Row],[nation]:[all ship HP]])</f>
         <v>9450</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5">
         <f>SUM(Tabelle1[Reloadtime])</f>
         <v>0</v>
       </c>
@@ -1003,7 +1039,7 @@
         <f>SUM(Tabelle10[[#This Row],[nation]:[all ship HP]])</f>
         <v>9550</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6">
         <f>SUM(Tabelle13[Reloadtime])</f>
         <v>0</v>
       </c>
@@ -1021,6 +1057,9 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
@@ -1051,7 +1090,7 @@
         <f>SUM(Tabelle10[[#This Row],[nation]:[all ship HP]])</f>
         <v>10700</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7">
         <f>SUM(Tabelle134[Reloadtime])</f>
         <v>0</v>
       </c>
@@ -1091,7 +1130,6 @@
         <f>SUM(Tabelle10[[#This Row],[nation]:[all ship HP]])</f>
         <v>0</v>
       </c>
-      <c r="R8" s="3"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -1125,7 +1163,6 @@
         <f>SUM(Tabelle10[[#This Row],[nation]:[all ship HP]])</f>
         <v>0</v>
       </c>
-      <c r="R9" s="3"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -1169,6 +1206,9 @@
       <c r="E11">
         <v>2500</v>
       </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
@@ -1199,6 +1239,9 @@
       <c r="E12">
         <v>3200</v>
       </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
       <c r="G12" t="s">
         <v>16</v>
       </c>
@@ -1268,6 +1311,9 @@
       <c r="E16">
         <v>400</v>
       </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
       <c r="G16" t="s">
         <v>14</v>
       </c>
@@ -1355,6 +1401,9 @@
       <c r="E19">
         <v>200</v>
       </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
       <c r="G19" t="s">
         <v>14</v>
       </c>
@@ -1413,6 +1462,9 @@
       <c r="E21">
         <v>1000</v>
       </c>
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
       <c r="G21" t="s">
         <v>15</v>
       </c>
@@ -1471,6 +1523,9 @@
       <c r="E23">
         <v>2000</v>
       </c>
+      <c r="F23" t="s">
+        <v>100</v>
+      </c>
       <c r="G23" t="s">
         <v>15</v>
       </c>
@@ -1598,6 +1653,9 @@
       <c r="E29">
         <v>200</v>
       </c>
+      <c r="F29" t="s">
+        <v>91</v>
+      </c>
       <c r="G29" t="s">
         <v>14</v>
       </c>
@@ -1656,6 +1714,9 @@
       <c r="E31">
         <v>200</v>
       </c>
+      <c r="F31" t="s">
+        <v>90</v>
+      </c>
       <c r="G31" t="s">
         <v>14</v>
       </c>
@@ -1772,6 +1833,9 @@
       <c r="E35">
         <v>1600</v>
       </c>
+      <c r="F35" t="s">
+        <v>100</v>
+      </c>
       <c r="G35" t="s">
         <v>15</v>
       </c>
@@ -1800,6 +1864,9 @@
       </c>
       <c r="E36">
         <v>2000</v>
+      </c>
+      <c r="F36" t="s">
+        <v>89</v>
       </c>
       <c r="G36" t="s">
         <v>16</v>
@@ -1860,7 +1927,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E40DF15C-1A69-492F-8076-DCCF5D4C0F1B}">
           <x14:formula1>
             <xm:f>weapons!$B$5:$B$12</xm:f>
@@ -1897,6 +1964,12 @@
           </x14:formula1>
           <xm:sqref>H5</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AB0C9B40-1703-4F23-9C02-808E8672453E}">
+          <x14:formula1>
+            <xm:f>effects!$B$4:$B$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1907,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2F235F-553F-4DF6-A7E5-29B099F51518}">
   <dimension ref="B3:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,6 +2182,9 @@
       <c r="D19" t="s">
         <v>53</v>
       </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
       <c r="G19" t="str" cm="1">
         <f t="array" ref="G19">_xlfn.IFS(D19 = "none", "0", D19 = "shield", "2", D19 = "hp", "2", D19 = "all", "3"  )</f>
         <v>3</v>
@@ -2124,6 +2200,9 @@
       <c r="D20" t="s">
         <v>59</v>
       </c>
+      <c r="E20">
+        <v>500</v>
+      </c>
       <c r="G20" t="str" cm="1">
         <f t="array" ref="G20">_xlfn.IFS(D20 = "none", "0", D20 = "shield", "2", D20 = "hp", "2", D20 = "all", "3"  )</f>
         <v>2</v>
@@ -2138,6 +2217,9 @@
       </c>
       <c r="D21" t="s">
         <v>52</v>
+      </c>
+      <c r="E21">
+        <v>500</v>
       </c>
       <c r="G21" t="str" cm="1">
         <f t="array" ref="G21">_xlfn.IFS(D21 = "none", "0", D21 = "shield", "2", D21 = "hp", "2", D21 = "all", "3"  )</f>
@@ -2187,23 +2269,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C8E2B3-7D07-4C1C-A71F-3FB0C0650FB1}">
-  <dimension ref="B2:G3"/>
+  <dimension ref="B2:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -2222,8 +2310,94 @@
       <c r="G3" t="s">
         <v>71</v>
       </c>
+      <c r="K3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8">
+        <v>300</v>
+      </c>
+      <c r="G8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>500</v>
+      </c>
+      <c r="G9" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{D1D98039-CAE2-44B0-AEC8-45C2BEEDD60C}">
+      <formula1>$K$4:$K$7</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;9&amp;K000000 Internal Use Only</oddFooter>
